--- a/Camera_Lab/data_test.xlsx
+++ b/Camera_Lab/data_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workpy3_code\Camera_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013CCAE0-7DB3-46EB-B35F-815D1D7DC8BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33642F3D-4257-4B62-856C-2622E92994E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{5E6E5203-848B-4D9F-9F8D-5D5277F94370}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{5E6E5203-848B-4D9F-9F8D-5D5277F94370}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracking" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="269">
   <si>
     <t>CE Service Number</t>
   </si>
@@ -783,9 +783,6 @@
     <t>Peiguang Ge</t>
   </si>
   <si>
-    <t xml:space="preserve">Hongliang Jing	</t>
-  </si>
-  <si>
     <t>Jun Yang (juyang@qct.qualcomm.com)</t>
   </si>
   <si>
@@ -799,95 +796,87 @@
   </si>
   <si>
     <t>Support Type</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DRI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>ServiceLab-TS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>AEC</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADRC</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Type1</t>
+  </si>
+  <si>
+    <t>Support Type2</t>
+  </si>
+  <si>
+    <t>Initial Tuning</t>
+  </si>
+  <si>
+    <t>Other ISP/CPP Block Tuning</t>
+  </si>
+  <si>
+    <t>Noise/Sharpness Tuning</t>
+  </si>
+  <si>
+    <t>AF Tuning</t>
+  </si>
+  <si>
+    <t>AWB Tuning</t>
+  </si>
+  <si>
+    <t>Other Feature Tuning</t>
+  </si>
+  <si>
+    <t>Contrast and Dynamic Range</t>
+  </si>
+  <si>
+    <t>Miscellaneous Tuning</t>
+  </si>
+  <si>
+    <t>PDAFTOF</t>
+  </si>
+  <si>
+    <t>AWBColor</t>
+  </si>
+  <si>
+    <t>Debug Lab</t>
+  </si>
+  <si>
+    <t>TS Lab</t>
   </si>
   <si>
     <t>AE Tuning</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADRC</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Misc</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support Type1</t>
-  </si>
-  <si>
-    <t>Support Type2</t>
-  </si>
-  <si>
-    <t>Initial Tuning</t>
-  </si>
-  <si>
-    <t>Other ISP/CPP Block Tuning</t>
-  </si>
-  <si>
-    <t>Noise/Sharpness Tuning</t>
-  </si>
-  <si>
-    <t>AF Tuning</t>
-  </si>
-  <si>
-    <t>AWB Tuning</t>
-  </si>
-  <si>
-    <t>Other Feature Tuning</t>
-  </si>
-  <si>
-    <t>Contrast and Dynamic Range</t>
-  </si>
-  <si>
-    <t>Miscellaneous Tuning</t>
-  </si>
-  <si>
-    <t>PDAFTOF</t>
-  </si>
-  <si>
-    <t>AWBColor</t>
-  </si>
-  <si>
-    <t>Debug Lab</t>
-  </si>
-  <si>
-    <t>TS Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,494 +1270,494 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3067,9 +3056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691FF9A1-90BD-437D-A343-A5BF4E406F56}">
   <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="22.5" customHeight="1"/>
@@ -3152,7 +3141,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>16</v>
@@ -4637,7 +4626,7 @@
         <v>105</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R20" s="26" t="s">
         <v>60</v>
@@ -13002,7 +12991,7 @@
       <c r="AR118" s="80"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -13015,8 +13004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD6050-7E13-43CC-B2B6-6FE8512F753A}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13086,7 +13075,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="181" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -13102,7 +13091,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="184" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -13126,7 +13115,7 @@
         <v>201</v>
       </c>
       <c r="B13" s="184" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -13134,7 +13123,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -13142,7 +13131,7 @@
         <v>122</v>
       </c>
       <c r="B15" s="184" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -13186,7 +13175,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B14" r:id="rId1" display="yanyan@qct.qualcomm.com" xr:uid="{1CB197C6-B99C-48E9-955C-E34499D21366}"/>
   </hyperlinks>
@@ -13214,18 +13203,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13233,7 +13222,7 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13245,7 +13234,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13255,7 +13244,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13266,10 +13255,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
         <v>250</v>
-      </c>
-      <c r="B1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13277,7 +13266,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13285,7 +13274,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13293,31 +13282,31 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13325,27 +13314,27 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Camera_Lab/data_test.xlsx
+++ b/Camera_Lab/data_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workpy3_code\Camera_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33642F3D-4257-4B62-856C-2622E92994E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5BEEC-8DDC-45A3-B335-FF260FD9F26B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{5E6E5203-848B-4D9F-9F8D-5D5277F94370}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{5E6E5203-848B-4D9F-9F8D-5D5277F94370}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracking" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="268">
   <si>
     <t>CE Service Number</t>
   </si>
@@ -625,9 +626,6 @@
   </si>
   <si>
     <t>F2</t>
-  </si>
-  <si>
-    <t>Mingcheng Gao</t>
   </si>
   <si>
     <t>00000947</t>
@@ -2702,7 +2700,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD0CFFD6-9C3D-434D-B089-CC42FF368A31}" name="Table2243" displayName="Table2243" ref="A1:AI112" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:AI112" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A2:AI112">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI112">
     <sortCondition ref="C1:C112"/>
   </sortState>
   <tableColumns count="35">
@@ -3056,9 +3054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691FF9A1-90BD-437D-A343-A5BF4E406F56}">
   <dimension ref="A1:AV118"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="22.5" customHeight="1"/>
@@ -3141,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>16</v>
@@ -4626,7 +4624,7 @@
         <v>105</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R20" s="26" t="s">
         <v>60</v>
@@ -11442,7 +11440,7 @@
         <v>43522</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>43</v>
@@ -11558,22 +11556,22 @@
     </row>
     <row r="99" spans="1:48" ht="16.5" customHeight="1">
       <c r="A99" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E99" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="G99" s="55">
         <v>43362</v>
@@ -11620,7 +11618,7 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
@@ -11642,22 +11640,22 @@
     </row>
     <row r="100" spans="1:48" ht="16.5" customHeight="1">
       <c r="A100" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E100" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="G100" s="55">
         <v>43362</v>
@@ -11704,7 +11702,7 @@
       <c r="U100" s="61"/>
       <c r="V100" s="61"/>
       <c r="W100" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X100" s="61"/>
       <c r="Y100" s="61"/>
@@ -11726,22 +11724,22 @@
     </row>
     <row r="101" spans="1:48" ht="16.5" customHeight="1">
       <c r="A101" s="146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B101" s="147" t="s">
         <v>118</v>
       </c>
       <c r="C101" s="147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D101" s="147" t="s">
         <v>49</v>
       </c>
       <c r="E101" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" s="148" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" s="148" t="s">
-        <v>194</v>
       </c>
       <c r="G101" s="149">
         <v>43481</v>
@@ -11802,22 +11800,22 @@
     </row>
     <row r="102" spans="1:48" ht="16.5" customHeight="1">
       <c r="A102" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="C102" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E102" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="G102" s="55">
         <v>43369</v>
@@ -11884,22 +11882,22 @@
     </row>
     <row r="103" spans="1:48" ht="22.5" customHeight="1">
       <c r="A103" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B103" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="C103" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E103" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="G103" s="55">
         <v>43369</v>
@@ -11931,7 +11929,7 @@
         <v>43585</v>
       </c>
       <c r="P103" s="122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q103" s="123" t="s">
         <v>43</v>
@@ -11974,22 +11972,22 @@
     </row>
     <row r="104" spans="1:48" ht="22.5" customHeight="1">
       <c r="A104" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C104" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>203</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E104" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="G104" s="24">
         <v>42987</v>
@@ -12036,7 +12034,7 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
@@ -12066,13 +12064,13 @@
     </row>
     <row r="105" spans="1:48" ht="16.5" customHeight="1">
       <c r="A105" s="155" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="156" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="156" t="s">
+      <c r="C105" s="156" t="s">
         <v>208</v>
-      </c>
-      <c r="C105" s="156" t="s">
-        <v>209</v>
       </c>
       <c r="D105" s="156" t="s">
         <v>37</v>
@@ -12148,22 +12146,22 @@
     </row>
     <row r="106" spans="1:48" ht="16.5" customHeight="1">
       <c r="A106" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="C106" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E106" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="G106" s="24">
         <v>43167</v>
@@ -12233,19 +12231,19 @@
     </row>
     <row r="107" spans="1:48" ht="16.5" customHeight="1">
       <c r="A107" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>49</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>59</v>
@@ -12280,10 +12278,10 @@
         <v>43437</v>
       </c>
       <c r="P107" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q107" s="68" t="s">
         <v>218</v>
-      </c>
-      <c r="Q107" s="68" t="s">
-        <v>219</v>
       </c>
       <c r="R107" s="2" t="s">
         <v>40</v>
@@ -12315,13 +12313,13 @@
     </row>
     <row r="108" spans="1:48" s="80" customFormat="1" ht="16.5" customHeight="1">
       <c r="A108" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="B108" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>221</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>37</v>
@@ -12359,7 +12357,7 @@
         <v>43280</v>
       </c>
       <c r="P108" s="160" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q108" s="35" t="s">
         <v>106</v>
@@ -12374,7 +12372,7 @@
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="161" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="X108" s="2"/>
       <c r="Y108" s="2">
@@ -12398,13 +12396,13 @@
     </row>
     <row r="109" spans="1:48" ht="41.25" customHeight="1">
       <c r="A109" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C109" s="52" t="s">
         <v>224</v>
-      </c>
-      <c r="B109" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C109" s="52" t="s">
-        <v>225</v>
       </c>
       <c r="D109" s="77" t="s">
         <v>37</v>
@@ -12413,7 +12411,7 @@
         <v>58</v>
       </c>
       <c r="F109" s="78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G109" s="130">
         <v>42947</v>
@@ -12480,22 +12478,22 @@
     </row>
     <row r="110" spans="1:48" ht="16.5" customHeight="1">
       <c r="A110" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="C110" s="147" t="s">
         <v>226</v>
-      </c>
-      <c r="B110" s="163" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="147" t="s">
-        <v>227</v>
       </c>
       <c r="D110" s="147" t="s">
         <v>49</v>
       </c>
       <c r="E110" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" s="148" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" s="148" t="s">
-        <v>214</v>
       </c>
       <c r="G110" s="164">
         <v>42947</v>
@@ -12556,19 +12554,19 @@
     </row>
     <row r="111" spans="1:48" ht="22.5" customHeight="1">
       <c r="A111" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="C111" s="52" t="s">
         <v>229</v>
-      </c>
-      <c r="C111" s="52" t="s">
-        <v>230</v>
       </c>
       <c r="D111" s="29" t="s">
         <v>37</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>59</v>
@@ -12646,22 +12644,22 @@
     </row>
     <row r="112" spans="1:48" ht="16.5" customHeight="1">
       <c r="A112" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" s="16" t="s">
         <v>231</v>
-      </c>
-      <c r="B112" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>232</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E112" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="16" t="s">
         <v>233</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>234</v>
       </c>
       <c r="G112" s="21">
         <v>43229</v>
@@ -12708,7 +12706,7 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
@@ -13004,7 +13002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD6050-7E13-43CC-B2B6-6FE8512F753A}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -13016,10 +13014,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="180" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="181" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13040,10 +13038,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="180" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -13059,7 +13057,7 @@
         <v>134</v>
       </c>
       <c r="B6" s="184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13091,7 +13089,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="184" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -13112,10 +13110,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="180" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="184" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -13123,7 +13121,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -13131,39 +13129,39 @@
         <v>122</v>
       </c>
       <c r="B15" s="184" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="180" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="181" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="180" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="181" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="181" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="181" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -13189,10 +13187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E1D781-F674-4894-B114-F6CA39462EDE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13203,18 +13201,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
         <v>254</v>
-      </c>
-      <c r="B1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13222,7 +13220,7 @@
         <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13231,6 +13229,14 @@
       </c>
       <c r="B4" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -13255,10 +13261,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
         <v>249</v>
-      </c>
-      <c r="B1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13266,7 +13272,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13274,7 +13280,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13282,31 +13288,31 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13314,23 +13320,23 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
